--- a/Input/560105.xlsx
+++ b/Input/560105.xlsx
@@ -12,56 +12,56 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108271402F">Data1!$K$1:$K$10,Data1!$K$11:$K$243</definedName>
-    <definedName name="A108271402F_Data">Data1!$K$11:$K$243</definedName>
-    <definedName name="A108271402F_Latest">Data1!$K$243</definedName>
-    <definedName name="A108271403J">Data1!$C$1:$C$10,Data1!$C$11:$C$243</definedName>
-    <definedName name="A108271403J_Data">Data1!$C$11:$C$243</definedName>
-    <definedName name="A108271403J_Latest">Data1!$C$243</definedName>
-    <definedName name="A108271577J">Data1!$N$1:$N$10,Data1!$N$215:$N$243</definedName>
-    <definedName name="A108271577J_Data">Data1!$N$215:$N$243</definedName>
-    <definedName name="A108271577J_Latest">Data1!$N$243</definedName>
-    <definedName name="A108271578K">Data1!$F$1:$F$10,Data1!$F$215:$F$243</definedName>
-    <definedName name="A108271578K_Data">Data1!$F$215:$F$243</definedName>
-    <definedName name="A108271578K_Latest">Data1!$F$243</definedName>
-    <definedName name="A108271661X">Data1!$M$1:$M$10,Data1!$M$11:$M$243</definedName>
-    <definedName name="A108271661X_Data">Data1!$M$11:$M$243</definedName>
-    <definedName name="A108271661X_Latest">Data1!$M$243</definedName>
-    <definedName name="A108271662A">Data1!$E$1:$E$10,Data1!$E$11:$E$243</definedName>
-    <definedName name="A108271662A_Data">Data1!$E$11:$E$243</definedName>
-    <definedName name="A108271662A_Latest">Data1!$E$243</definedName>
-    <definedName name="A108271759W">Data1!$J$1:$J$10,Data1!$J$11:$J$243</definedName>
-    <definedName name="A108271759W_Data">Data1!$J$11:$J$243</definedName>
-    <definedName name="A108271759W_Latest">Data1!$J$243</definedName>
-    <definedName name="A108271760F">Data1!$B$1:$B$10,Data1!$B$215:$B$243</definedName>
-    <definedName name="A108271760F_Data">Data1!$B$215:$B$243</definedName>
-    <definedName name="A108271760F_Latest">Data1!$B$243</definedName>
-    <definedName name="A108276099T">Data1!$O$1:$O$10,Data1!$O$11:$O$243</definedName>
-    <definedName name="A108276099T_Data">Data1!$O$11:$O$243</definedName>
-    <definedName name="A108276099T_Latest">Data1!$O$243</definedName>
-    <definedName name="A108276100R">Data1!$G$1:$G$10,Data1!$G$215:$G$243</definedName>
-    <definedName name="A108276100R_Data">Data1!$G$215:$G$243</definedName>
-    <definedName name="A108276100R_Latest">Data1!$G$243</definedName>
-    <definedName name="A108284898L">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108284898L_Data">Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108284898L_Latest">Data1!$Q$243</definedName>
-    <definedName name="A108284899R">Data1!$I$1:$I$10,Data1!$I$215:$I$243</definedName>
-    <definedName name="A108284899R_Data">Data1!$I$215:$I$243</definedName>
-    <definedName name="A108284899R_Latest">Data1!$I$243</definedName>
-    <definedName name="A108289420T">Data1!$P$1:$P$10,Data1!$P$11:$P$243</definedName>
-    <definedName name="A108289420T_Data">Data1!$P$11:$P$243</definedName>
-    <definedName name="A108289420T_Latest">Data1!$P$243</definedName>
-    <definedName name="A108289421V">Data1!$H$1:$H$10,Data1!$H$11:$H$243</definedName>
-    <definedName name="A108289421V_Data">Data1!$H$11:$H$243</definedName>
-    <definedName name="A108289421V_Latest">Data1!$H$243</definedName>
-    <definedName name="A108294299W">Data1!$L$1:$L$10,Data1!$L$11:$L$243</definedName>
-    <definedName name="A108294299W_Data">Data1!$L$11:$L$243</definedName>
-    <definedName name="A108294299W_Latest">Data1!$L$243</definedName>
-    <definedName name="A108294300V">Data1!$D$1:$D$10,Data1!$D$11:$D$243</definedName>
-    <definedName name="A108294300V_Data">Data1!$D$11:$D$243</definedName>
-    <definedName name="A108294300V_Latest">Data1!$D$243</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$243</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$243</definedName>
+    <definedName name="A108271402F">Data1!$K$1:$K$10,Data1!$K$11:$K$245</definedName>
+    <definedName name="A108271402F_Data">Data1!$K$11:$K$245</definedName>
+    <definedName name="A108271402F_Latest">Data1!$K$245</definedName>
+    <definedName name="A108271403J">Data1!$C$1:$C$10,Data1!$C$11:$C$245</definedName>
+    <definedName name="A108271403J_Data">Data1!$C$11:$C$245</definedName>
+    <definedName name="A108271403J_Latest">Data1!$C$245</definedName>
+    <definedName name="A108271577J">Data1!$N$1:$N$10,Data1!$N$215:$N$245</definedName>
+    <definedName name="A108271577J_Data">Data1!$N$215:$N$245</definedName>
+    <definedName name="A108271577J_Latest">Data1!$N$245</definedName>
+    <definedName name="A108271578K">Data1!$F$1:$F$10,Data1!$F$215:$F$245</definedName>
+    <definedName name="A108271578K_Data">Data1!$F$215:$F$245</definedName>
+    <definedName name="A108271578K_Latest">Data1!$F$245</definedName>
+    <definedName name="A108271661X">Data1!$M$1:$M$10,Data1!$M$11:$M$245</definedName>
+    <definedName name="A108271661X_Data">Data1!$M$11:$M$245</definedName>
+    <definedName name="A108271661X_Latest">Data1!$M$245</definedName>
+    <definedName name="A108271662A">Data1!$E$1:$E$10,Data1!$E$11:$E$245</definedName>
+    <definedName name="A108271662A_Data">Data1!$E$11:$E$245</definedName>
+    <definedName name="A108271662A_Latest">Data1!$E$245</definedName>
+    <definedName name="A108271759W">Data1!$J$1:$J$10,Data1!$J$11:$J$245</definedName>
+    <definedName name="A108271759W_Data">Data1!$J$11:$J$245</definedName>
+    <definedName name="A108271759W_Latest">Data1!$J$245</definedName>
+    <definedName name="A108271760F">Data1!$B$1:$B$10,Data1!$B$215:$B$245</definedName>
+    <definedName name="A108271760F_Data">Data1!$B$215:$B$245</definedName>
+    <definedName name="A108271760F_Latest">Data1!$B$245</definedName>
+    <definedName name="A108276099T">Data1!$O$1:$O$10,Data1!$O$11:$O$245</definedName>
+    <definedName name="A108276099T_Data">Data1!$O$11:$O$245</definedName>
+    <definedName name="A108276099T_Latest">Data1!$O$245</definedName>
+    <definedName name="A108276100R">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
+    <definedName name="A108276100R_Data">Data1!$G$215:$G$245</definedName>
+    <definedName name="A108276100R_Latest">Data1!$G$245</definedName>
+    <definedName name="A108284898L">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108284898L_Data">Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108284898L_Latest">Data1!$Q$245</definedName>
+    <definedName name="A108284899R">Data1!$I$1:$I$10,Data1!$I$215:$I$245</definedName>
+    <definedName name="A108284899R_Data">Data1!$I$215:$I$245</definedName>
+    <definedName name="A108284899R_Latest">Data1!$I$245</definedName>
+    <definedName name="A108289420T">Data1!$P$1:$P$10,Data1!$P$11:$P$245</definedName>
+    <definedName name="A108289420T_Data">Data1!$P$11:$P$245</definedName>
+    <definedName name="A108289420T_Latest">Data1!$P$245</definedName>
+    <definedName name="A108289421V">Data1!$H$1:$H$10,Data1!$H$11:$H$245</definedName>
+    <definedName name="A108289421V_Data">Data1!$H$11:$H$245</definedName>
+    <definedName name="A108289421V_Latest">Data1!$H$245</definedName>
+    <definedName name="A108294299W">Data1!$L$1:$L$10,Data1!$L$11:$L$245</definedName>
+    <definedName name="A108294299W_Data">Data1!$L$11:$L$245</definedName>
+    <definedName name="A108294299W_Latest">Data1!$L$245</definedName>
+    <definedName name="A108294300V">Data1!$D$1:$D$10,Data1!$D$11:$D$245</definedName>
+    <definedName name="A108294300V_Data">Data1!$D$11:$D$245</definedName>
+    <definedName name="A108294300V_Latest">Data1!$D$245</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -283,7 +283,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -985,10 +985,10 @@
         <v>43647</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>25</v>
@@ -1017,10 +1017,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>25</v>
@@ -1049,10 +1049,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>25</v>
@@ -1081,10 +1081,10 @@
         <v>37438</v>
       </c>
       <c r="G15" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>25</v>
@@ -1113,10 +1113,10 @@
         <v>43647</v>
       </c>
       <c r="G16" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>25</v>
@@ -1145,10 +1145,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>25</v>
@@ -1177,10 +1177,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>25</v>
@@ -1209,10 +1209,10 @@
         <v>43647</v>
       </c>
       <c r="G19" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>25</v>
@@ -1241,10 +1241,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>37</v>
@@ -1273,10 +1273,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>37</v>
@@ -1305,10 +1305,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>37</v>
@@ -1337,10 +1337,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>37</v>
@@ -1369,10 +1369,10 @@
         <v>43647</v>
       </c>
       <c r="G24" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>37</v>
@@ -1401,10 +1401,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>37</v>
@@ -1433,10 +1433,10 @@
         <v>37438</v>
       </c>
       <c r="G26" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H26" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>37</v>
@@ -1465,10 +1465,10 @@
         <v>43647</v>
       </c>
       <c r="G27" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H27" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>37</v>
@@ -1519,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q243"/>
+  <dimension ref="A1:Q245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -1906,52 +1906,52 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="P8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Q8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1959,52 +1959,52 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -10735,6 +10735,112 @@
       </c>
       <c r="Q243" s="9">
         <v>2475.6999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A244" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B244" s="8">
+        <v>11901</v>
+      </c>
+      <c r="C244" s="8">
+        <v>914</v>
+      </c>
+      <c r="D244" s="8">
+        <v>866</v>
+      </c>
+      <c r="E244" s="8">
+        <v>8294</v>
+      </c>
+      <c r="F244" s="8">
+        <v>822</v>
+      </c>
+      <c r="G244" s="8">
+        <v>1005</v>
+      </c>
+      <c r="H244" s="8">
+        <v>6433</v>
+      </c>
+      <c r="I244" s="8">
+        <v>4155</v>
+      </c>
+      <c r="J244" s="9">
+        <v>8396.7999999999993</v>
+      </c>
+      <c r="K244" s="9">
+        <v>545.29999999999995</v>
+      </c>
+      <c r="L244" s="9">
+        <v>605.6</v>
+      </c>
+      <c r="M244" s="9">
+        <v>6704.5</v>
+      </c>
+      <c r="N244" s="9">
+        <v>345.4</v>
+      </c>
+      <c r="O244" s="9">
+        <v>196</v>
+      </c>
+      <c r="P244" s="9">
+        <v>3970.7</v>
+      </c>
+      <c r="Q244" s="9">
+        <v>2154.3000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A245" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B245" s="8">
+        <v>8382</v>
+      </c>
+      <c r="C245" s="8">
+        <v>611</v>
+      </c>
+      <c r="D245" s="8">
+        <v>482</v>
+      </c>
+      <c r="E245" s="8">
+        <v>6180</v>
+      </c>
+      <c r="F245" s="8">
+        <v>421</v>
+      </c>
+      <c r="G245" s="8">
+        <v>688</v>
+      </c>
+      <c r="H245" s="8">
+        <v>4323</v>
+      </c>
+      <c r="I245" s="8">
+        <v>2940</v>
+      </c>
+      <c r="J245" s="9">
+        <v>6161.6</v>
+      </c>
+      <c r="K245" s="9">
+        <v>340.4</v>
+      </c>
+      <c r="L245" s="9">
+        <v>374.8</v>
+      </c>
+      <c r="M245" s="9">
+        <v>5137.2</v>
+      </c>
+      <c r="N245" s="9">
+        <v>190.1</v>
+      </c>
+      <c r="O245" s="9">
+        <v>119</v>
+      </c>
+      <c r="P245" s="9">
+        <v>2668</v>
+      </c>
+      <c r="Q245" s="9">
+        <v>1459.5</v>
       </c>
     </row>
   </sheetData>
